--- a/zxxs_api_v1_doc.xlsx
+++ b/zxxs_api_v1_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A.Intro" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>测试页面地址</t>
   </si>
@@ -505,7 +505,22 @@
     <t>省份名称</t>
   </si>
   <si>
-    <t>nowForecast</t>
+    <t>weather_today</t>
+  </si>
+  <si>
+    <t>temp_today</t>
+  </si>
+  <si>
+    <t>白天/夜晚温度</t>
+  </si>
+  <si>
+    <t>conditionId_day</t>
+  </si>
+  <si>
+    <t>天气图标id</t>
+  </si>
+  <si>
+    <t>weather_tomrrow</t>
   </si>
   <si>
     <t>02</t>
@@ -517,10 +532,7 @@
     <t>member/thirdpart_wx/loginWithWechat</t>
   </si>
   <si>
-    <t>wechat_code</t>
-  </si>
-  <si>
-    <t>微信CODE</t>
+    <t>http://ali-todayoil.showapi.com/todayoil</t>
   </si>
   <si>
     <t>member_id</t>
@@ -537,12 +549,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -587,13 +599,6 @@
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -664,12 +669,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -730,19 +729,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -757,6 +750,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -769,7 +768,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +807,182 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
         <bgColor rgb="FF558ED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -820,181 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,155 +1165,155 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1363,9 +1368,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1383,7 +1389,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2032,7 +2038,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="23" t="s">
         <v>25</v>
       </c>
@@ -2050,9 +2056,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
@@ -2093,11 +2099,11 @@
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
@@ -2153,7 +2159,7 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter/>
 </worksheet>
@@ -2167,17 +2173,17 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
     <col min="4" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13" style="31" customWidth="1"/>
     <col min="10" max="10" width="66.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="1" customWidth="1"/>
@@ -2186,10 +2192,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2210,7 +2216,7 @@
       <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -2224,7 +2230,7 @@
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2233,20 +2239,20 @@
       <c r="C2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="14" t="s">
         <v>59</v>
       </c>
@@ -2256,266 +2262,266 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="42"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="42"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="42"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="42"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="42"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="42"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="42"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="42"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L20"/>
   <hyperlinks>
     <hyperlink ref="A2" location="'01'!A1" display="1"/>
   </hyperlinks>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
@@ -2544,7 +2550,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2561,7 +2567,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2572,7 +2578,7 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -2583,7 +2589,7 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2594,7 +2600,7 @@
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2605,7 +2611,7 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2616,7 +2622,7 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2627,14 +2633,14 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2645,7 +2651,7 @@
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2656,7 +2662,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2667,7 +2673,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -2678,7 +2684,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -2689,7 +2695,7 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -2700,7 +2706,7 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2711,7 +2717,7 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -2722,7 +2728,7 @@
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -2733,7 +2739,7 @@
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -2744,7 +2750,7 @@
       <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter/>
 </worksheet>
@@ -2755,8 +2761,8 @@
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2848,10 +2854,10 @@
       <c r="C5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="8"/>
       <c r="G5" s="13" t="s">
         <v>107</v>
@@ -2864,7 +2870,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="8"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -2941,8 +2947,12 @@
       <c r="G10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10">
@@ -2952,8 +2962,12 @@
       <c r="E11" s="13"/>
       <c r="F11" s="8"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10">
@@ -2962,9 +2976,15 @@
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10">
@@ -2974,8 +2994,12 @@
       <c r="E13" s="13"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10">
@@ -3130,8 +3154,8 @@
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="B3:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3147,7 +3171,7 @@
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="19" t="s">
@@ -3155,7 +3179,7 @@
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
@@ -3180,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -3218,10 +3242,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="8"/>
@@ -3254,10 +3278,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3272,7 +3296,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -3811,7 +3835,7 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter/>
 </worksheet>

--- a/zxxs_api_v1_doc.xlsx
+++ b/zxxs_api_v1_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A.Intro" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>测试页面地址</t>
   </si>
@@ -436,7 +436,7 @@
     <t>01</t>
   </si>
   <si>
-    <t>测试-测试接口页面</t>
+    <t>weather-get weather info</t>
   </si>
   <si>
     <t>request</t>
@@ -526,13 +526,10 @@
     <t>02</t>
   </si>
   <si>
-    <t>会员-微信登录</t>
+    <t>gas-get gas price</t>
   </si>
   <si>
     <t>member/thirdpart_wx/loginWithWechat</t>
-  </si>
-  <si>
-    <t>http://ali-todayoil.showapi.com/todayoil</t>
   </si>
   <si>
     <t>member_id</t>
@@ -549,9 +546,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -604,37 +601,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,6 +647,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -729,6 +709,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -743,19 +753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -768,7 +765,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,37 +804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
         <bgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,19 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,25 +930,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,61 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,30 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,6 +1067,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,6 +1130,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1165,153 +1156,153 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1371,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1389,7 +1380,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2761,8 +2752,8 @@
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3154,8 +3145,8 @@
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3241,12 +3232,8 @@
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>130</v>
-      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="23"/>
       <c r="F5" s="8"/>
       <c r="G5" s="13" t="s">
@@ -3278,10 +3265,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3296,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>

--- a/zxxs_api_v1_doc.xlsx
+++ b/zxxs_api_v1_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="3"/>
+    <workbookView windowHeight="15620" tabRatio="745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A.Intro" sheetId="1" r:id="rId1"/>
@@ -457,12 +457,6 @@
     <t>对应error_code代码表</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>http://apifreelat.market.alicloudapi.com/whapi/json/aliweather/briefforecast3days</t>
-  </si>
-  <si>
     <t>error_desc</t>
   </si>
   <si>
@@ -518,6 +512,12 @@
   </si>
   <si>
     <t>天气图标id</t>
+  </si>
+  <si>
+    <t>condition_day</t>
+  </si>
+  <si>
+    <t>白天天气简称</t>
   </si>
   <si>
     <t>weather_tomrrow</t>
@@ -546,10 +546,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -599,10 +599,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -612,15 +633,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -635,107 +732,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -745,12 +746,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -765,7 +765,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,8 +804,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
         <bgColor rgb="FF558ED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -816,7 +828,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +888,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,73 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,67 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,26 +1062,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,37 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1134,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1156,291 +1162,292 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="常规 3 3" xfId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="常规 3 3" xfId="33"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
     <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1542,7 +1549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448165" cy="9524365"/>
+          <a:ext cx="10908665" cy="7419340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,7 +1602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8258175" cy="180975"/>
+          <a:ext cx="9553575" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -1909,237 +1916,237 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.1285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="75" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.375" style="1"/>
+    <col min="4" max="1025" width="11.3785714285714" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2157,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -2167,345 +2174,345 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
     <col min="4" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="31" customWidth="1"/>
-    <col min="10" max="10" width="66.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="32" customWidth="1"/>
+    <col min="10" max="10" width="66.8785714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="11.375" style="1"/>
+    <col min="13" max="1025" width="11.3785714285714" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="37"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="37"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="37"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="37"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="37"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="37"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="37"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="39"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="37"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="37"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="37"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="37"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="37"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="37"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L20"/>
@@ -2521,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2529,216 +2536,216 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.25" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.375" style="1"/>
+    <col min="6" max="1025" width="11.3785714285714" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -2748,21 +2755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6285714285714" style="1" customWidth="1"/>
+    <col min="6" max="10" width="20.6285714285714" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2779,11 +2786,11 @@
         <v>44</v>
       </c>
       <c r="G1" s="19"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="19" t="s">
@@ -2800,329 +2807,332 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="8" t="s">
+    <row r="3" ht="17" spans="2:10">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="8" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="17" spans="2:10">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="H5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="27" t="s">
+      <c r="E6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="H7" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="I7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="H10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16" t="s">
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H13" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16" t="s">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3141,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -3149,10 +3159,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="20.6285714285714" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3169,11 +3179,11 @@
         <v>44</v>
       </c>
       <c r="G1" s="19"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="19" t="s">
@@ -3191,288 +3201,288 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="8" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="17" spans="2:10">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3491,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -3499,11 +3509,11 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="1025" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.87857142857143" style="1"/>
+    <col min="2" max="10" width="20.6285714285714" style="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.87857142857143" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3513,12 +3523,12 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
@@ -3526,290 +3536,290 @@
       <c r="B2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/zxxs_api_v1_doc.xlsx
+++ b/zxxs_api_v1_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15620" tabRatio="745" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A.Intro" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -599,7 +599,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +628,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,21 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,16 +693,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,77 +747,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -816,7 +816,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +858,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,37 +942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,109 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1065,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1101,6 +1110,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1133,15 +1151,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1150,304 +1159,297 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="常规 3 3" xfId="33"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1549,7 +1551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10908665" cy="7419340"/>
+          <a:ext cx="9448165" cy="9524365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,7 +1604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9553575" cy="139700"/>
+          <a:ext cx="8258175" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -1916,237 +1918,237 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="75" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.3785714285714" style="1"/>
+    <col min="4" max="1025" width="11.375" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2164,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -2174,345 +2176,345 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
     <col min="4" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="32" customWidth="1"/>
-    <col min="10" max="10" width="66.8785714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="34" customWidth="1"/>
+    <col min="10" max="10" width="66.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="11.3785714285714" style="1"/>
+    <col min="13" max="1025" width="11.375" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A2" s="34">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="36"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="36"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="36"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="36"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="36"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="36"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="36"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="36"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="36"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="36"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="36"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="36"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="36"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="36"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="36"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="41"/>
+      <c r="E21" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L20"/>
@@ -2528,7 +2530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2536,216 +2538,216 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.25" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.3785714285714" style="1"/>
+    <col min="6" max="1025" width="11.375" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -2755,21 +2757,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="20.6285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6285714285714" style="1" customWidth="1"/>
-    <col min="6" max="10" width="20.6285714285714" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2786,11 +2788,11 @@
         <v>44</v>
       </c>
       <c r="G1" s="19"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="19" t="s">
@@ -2807,88 +2809,88 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" ht="17" spans="2:10">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="17" spans="2:10">
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="28" t="s">
@@ -2900,14 +2902,14 @@
       <c r="I7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="s">
         <v>115</v>
@@ -2915,14 +2917,14 @@
       <c r="I8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28" t="s">
         <v>117</v>
@@ -2930,60 +2932,61 @@
       <c r="I9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="1" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="16" t="s">
         <v>126</v>
       </c>
@@ -2993,146 +2996,146 @@
       <c r="I13" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="16" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3151,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -3159,10 +3162,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="10" width="20.6285714285714" style="1" customWidth="1"/>
+    <col min="2" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3179,11 +3182,11 @@
         <v>44</v>
       </c>
       <c r="G1" s="19"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="19" t="s">
@@ -3201,288 +3204,288 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="17" spans="2:10">
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3501,7 +3504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -3509,11 +3512,11 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.87857142857143" style="1"/>
-    <col min="2" max="10" width="20.6285714285714" style="1" customWidth="1"/>
-    <col min="11" max="1025" width="8.87857142857143" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.875" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3523,12 +3526,12 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="11"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
@@ -3536,290 +3539,290 @@
       <c r="B2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
